--- a/scrapping/pandas2day.xlsx
+++ b/scrapping/pandas2day.xlsx
@@ -501,18 +501,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ICICI Bank
+Olectra Greentech
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1062.70</t>
+          <t>2101.50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1066.00</t>
+          <t>2221.95</t>
         </is>
       </c>
     </row>
@@ -523,18 +523,18 @@
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Olectra Greentech
+ICICI Bank
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2101.50</t>
+          <t>1062.70</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2221.95</t>
+          <t>1066.00</t>
         </is>
       </c>
     </row>
@@ -633,18 +633,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tata Invest Corp
+Bharat Electronics
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6977.50</t>
+          <t>194.75</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7111.15</t>
+          <t>196.00</t>
         </is>
       </c>
     </row>
@@ -655,18 +655,18 @@
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bharat Electronics
+Tata Invest Corp
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>194.75</t>
+          <t>6977.50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>196.00</t>
+          <t>7111.15</t>
         </is>
       </c>
     </row>

--- a/scrapping/pandas2day.xlsx
+++ b/scrapping/pandas2day.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>302.85</t>
+          <t>333.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>305.30</t>
+          <t>347.00</t>
         </is>
       </c>
     </row>
@@ -479,18 +479,18 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ABB India
+Vodafone Idea
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5425.00</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5450.00</t>
+          <t>18.40</t>
         </is>
       </c>
     </row>
@@ -501,18 +501,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Olectra Greentech
+Reliance Industries
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2101.50</t>
+          <t>2987.25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2221.95</t>
+          <t>2995.10</t>
         </is>
       </c>
     </row>
@@ -523,18 +523,18 @@
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ICICI Bank
+Indus Towers
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1062.70</t>
+          <t>241.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1066.00</t>
+          <t>245.50</t>
         </is>
       </c>
     </row>
@@ -545,18 +545,18 @@
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HFCL
+Bharat Electronics
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>115.15</t>
+          <t>205.30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>116.45</t>
+          <t>207.00</t>
         </is>
       </c>
     </row>
@@ -567,18 +567,18 @@
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Grasim Industries
+ICICI Bank
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2201.20</t>
+          <t>1061.30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2244.00</t>
+          <t>1070.00</t>
         </is>
       </c>
     </row>
@@ -589,18 +589,18 @@
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Maruti Suzuki
+Canara Bank
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11657.80</t>
+          <t>580.45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11695.00</t>
+          <t>598.80</t>
         </is>
       </c>
     </row>
@@ -611,18 +611,18 @@
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mahindra &amp; Mahindra
+ABB India
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1910.35</t>
+          <t>5392.05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1917.00</t>
+          <t>5518.10</t>
         </is>
       </c>
     </row>
@@ -633,18 +633,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bharat Electronics
+Adani Enterprises
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>194.75</t>
+          <t>3273.30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>196.00</t>
+          <t>3319.95</t>
         </is>
       </c>
     </row>
@@ -655,18 +655,18 @@
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tata Invest Corp
+Mahindra &amp; Mahindra
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6977.50</t>
+          <t>1929.95</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7111.15</t>
+          <t>1947.85</t>
         </is>
       </c>
     </row>
@@ -677,18 +677,18 @@
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-NCC
+Astral
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>243.05</t>
+          <t>2075.90</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>246.70</t>
+          <t>2095.00</t>
         </is>
       </c>
     </row>
@@ -699,18 +699,18 @@
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Indian Hotel
+JSW Infrastructure
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>578.85</t>
+          <t>262.45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>583.20</t>
+          <t>265.00</t>
         </is>
       </c>
     </row>
@@ -721,18 +721,18 @@
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Apollo Hospital Ent.
+NCC
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6769.20</t>
+          <t>254.70</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6874.45</t>
+          <t>260.00</t>
         </is>
       </c>
     </row>
@@ -743,18 +743,18 @@
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-BF Utilities
+Maruti Suzuki
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>856.20</t>
+          <t>11535.60</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>877.00</t>
+          <t>11720.00</t>
         </is>
       </c>
     </row>
@@ -765,18 +765,18 @@
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cummins India
+Indiabulls Real Est.
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2760.85</t>
+          <t>124.10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2789.75</t>
+          <t>127.00</t>
         </is>
       </c>
     </row>
